--- a/assets/disciplinas/LOM3006.xlsx
+++ b/assets/disciplinas/LOM3006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A disciplina Degradação e Proteção de Materiais visa propiciar aos alunos os conhecimentos básicos da degradação dos materiais, dando enfoque à corrosão e à oxidação de metais e ligas metálicas. São abordados os fundamentos teóricos dos dois processos degradativos, tanto termodinâmicos como cinéticos, e descritas as principais formas de ataque e as técnicas de proteção contra a corrosão e a oxidação metálica.</t>
+    <t>5840747 - Alain Laurent Marie Robin</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,64 +82,52 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840747 - Alain Laurent Marie Robin</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Fundamentals of corrosion (thermodynamics and kinetic aspects); Main types of corrosion; Corrosion protection and control; Degradation of polymeric and ceramic materials; Oxidation at high temperatures</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>7926291 - Célia Regina Tomachuk dos Santos Catuogno</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>1. Economic, social and environmental effects of metallic corrosion. 2. Thermodynamic and kinetics aspects of corrosion. Polarization. 3.Pourbaix diagram. 4. Types of corrosion (uniform corrosion, pitting corrosion, intergranular corrosion, corrosion associated with mechanical factors, galvanic corrosion, atmospheric corrosion). 5. Anodic and cathodic protection. 6. Coatings. 7. Corrosion inhibitors. 8. Polymeric and ceramic degradation. 9. High temperatures oxidation.</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Fundamentos da corrosão (termodinâmica e cinética); Principais tipos de corrosão; Controle e proteção contra a corrosão; Degradação de materiais poliméricos e cerâmicos; Oxidação em altas temperaturas.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Fundamentals of corrosion (thermodynamics and kinetic aspects); Main types of corrosion; Corrosion protection and control; Degradation of polymeric and ceramic materials; Oxidation at high temperatures</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Corrosão e sua importância econômica, social e ambiental. 2. Aspectos termodinâmicos e cinéticos da corrosão. Polarização. 3. Diagrama de Pourbaix. 4. Tipos de corrosão (corrosão uniforme, corrosão por pites, corrosão intergranular, corrosão associado com fatores mecânicos, corrosão galvânica e corrosão atmosférica). 5. Proteção catódica e anódica. 6. Revestimentos metálicos e orgânicos. 7. Inibidores de corrosão. 8. Degradação de materiais poliméricos e cerâmicos. 9. Oxidação em altas temperaturas.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>1. Economic, social and environmental effects of metallic corrosion. 2. Thermodynamic and kinetics aspects of corrosion. Polarization. 3.Pourbaix diagram. 4. Types of corrosion (uniform corrosion, pitting corrosion, intergranular corrosion, corrosion associated with mechanical factors, galvanic corrosion, atmospheric corrosion). 5. Anodic and cathodic protection. 6. Coatings. 7. Corrosion inhibitors. 8. Polymeric and ceramic degradation. 9. High temperatures oxidation.</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>As avaliações serão por meio de provas individuais ou trabalhos em equipes, conforme adequação ao conteúdo programático.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final é a média aritmética das avaliações realizadas</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova escrita sobre toda matéria.A média final MF será a média da nota final NF e da nota obtida na recuperação NR:MF = (NF + NR)/2Será aprovado o aluno com MF igual ou superior a 5.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BRETT, A.M.O., BRETT, C.M. Electroquímica: Princípios, métodos e aplicações. Coimbra, Livraria Medina, 1996.FONTANA, M.G. Corrosion Engineering. 3ª Edição. McGraw-Hill, 1987GENTIL, V. Corrosão. 5ª Edição, Rio de Janeiro, Ed. LTC, 2007 JAMBO, H.C.M. e Fofano S. Corrosão: Fundamentos, Monitoração e Controle. Editora Ciência Moderna, 2009.JONES, D.A. Principles and Prevention of Corrosion. 2ª  Edição, Prentice Hall, 1996.McCAULEY, R. A. Corrosion of Ceramic and Composite Materials. 2ª  Edição, 2004.RAMANHATAN, L. Corrosão e seu Controle. São Paulo. Ed. Hemus, 1990.SHREIR, L.L., JARMAN, R.A., BURSTEIN, G.T. Corrosion. 3ª Edição. Oxford, Butterworth Heinemann, volume 2, 2000.WEST, J. M. Basic Corrosion and Oxidation. Second Edition. New York. Ellis Horwood Limited; John Wiley &amp; Sons. 1986.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -506,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,105 +625,105 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -743,36 +731,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3006.xlsx
+++ b/assets/disciplinas/LOM3006.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -115,13 +115,13 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>As avaliações serão por meio de provas individuais ou trabalhos em equipes, conforme adequação ao conteúdo programático.</t>
+    <t>Os alunos serão avaliados continuamente quanto às habilidades gerais em função da participação ativa nas aulas. Também, serão aplicadas: provas escritas, trabalhos extraclasse, pequenos seminários e atividades para discussão dos Estudos de Caso.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final é a média aritmética das avaliações realizadas</t>
+    <t>Será considerada a média das avaliações gerais, com peso 1 (AG) somada à nota de duas provass escritas, P1 e P2, com peso 1, cada). A nota final (NF) será calculada pela equação: NF = (AG + P1+ P2)/3.</t>
   </si>
   <si>
     <t>Bibliografia:</t>

--- a/assets/disciplinas/LOM3006.xlsx
+++ b/assets/disciplinas/LOM3006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,33 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>A disciplina Degradação e Proteção de Materiais visa propiciar aos alunos os conhecimentos básicos da degradação dos materiais, dando enfoque à corrosão e à oxidação de metais e ligas metálicas. São abordados os fundamentos teóricos dos dois processos degradativos, tanto termodinâmicos como cinéticos, e descritas as principais formas de ataque e as técnicas de proteção contra a corrosão e a oxidação metálica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The discipline of Degradation and Protection of Materials aims at offering students the basic knowledge of the degradation of materials, focusing on the corrosion and oxidation of metals and metal alloys. Theoretical foundations areThe two degradative processes, both thermodynamic and kinetic, and the main forms of attack and protection against corrosion and metal oxidation.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840747 - Alain Laurent Marie Robin</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The discipline of Degradation and Protection of Materials aims at offering students the basic knowledge of the degradation of materials, focusing on the corrosion and oxidation of metals and metal alloys. Theoretical foundations areThe two degradative processes, both thermodynamic and kinetic, and the main forms of attack and protection against corrosion and metal oxidation.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>7926291 - Célia Regina Tomachuk dos Santos Catuogno</t>
+  </si>
+  <si>
+    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Fundamentos da corrosão (termodinâmica e cinética); principais tipos de corrosão; Controle e proteção contra a corrosão; Degradação de materiais poliméricos e cerâmicos; Oxidação em altas temperaturas. Estudo de Caso</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,7 +106,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>7926291 - Célia Regina Tomachuk dos Santos Catuogno</t>
+    <t>Corrosão e sua importância econômica, social e ambiental. 2. Aspectos termodinâmicos e cinéticos da corrosão. Polarização. Princípios básicos de eletroquímica para compreensão do fenômeno de corrosão. Diagrama de Pourbaix. 3. Tipos de corrosão (corrosão uniforme, corrosão por pites, corrosão intergranular, corrosão associado com fatores mecânicos, corrosão galvânica e corrosão atmosférica). 4. Proteção catódica e anódica. 5.Revestimentos metálicos e orgânicos. 6. Inibidores de corrosão. 7. Degradação de materiais poliméricos. 8.Degradação de materiais cerâmicos. 9.Oxidação em altas temperaturas. 10. Estudos de Casos referentes às falhas causadas em equipamentos devido processo corrosivo, atividade que potencializa o papel do aluno como protagonista do processo de ensino e aprendizagem, colocando-o em contato com problemas reais.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -109,25 +121,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
+    <t>Os alunos serão avaliados continuamente quanto às habilidades gerais em função da participação ativa nas aulas. Também, serão aplicadas: provas escritas, trabalhos extraclasse, pequenos seminários e atividades para discussão dos Estudos de Caso.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos serão avaliados continuamente quanto às habilidades gerais em função da participação ativa nas aulas. Também, serão aplicadas: provas escritas, trabalhos extraclasse, pequenos seminários e atividades para discussão dos Estudos de Caso.</t>
+    <t>Será considerada a média das avaliações gerais, com peso 1 (AG) somada à nota de duas provass escritas, P1 e P2, com peso 1, cada). A nota final (NF) será calculada pela equação: NF = (AG + P1+ P2)/3.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Será considerada a média das avaliações gerais, com peso 1 (AG) somada à nota de duas provass escritas, P1 e P2, com peso 1, cada). A nota final (NF) será calculada pela equação: NF = (AG + P1+ P2)/3.</t>
+    <t>Prova escrita sobre toda matéria.A média final MF será a média da nota final NF e da nota obtida na recuperação NR:MF = (NF + NR)/2Será aprovado o aluno com MF igual ou superior a 5.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova escrita sobre toda matéria.A média final MF será a média da nota final NF e da nota obtida na recuperação NR:MF = (NF + NR)/2Será aprovado o aluno com MF igual ou superior a 5.</t>
+    <t>ASM Handbook Committee, ASM Handbook: Corrosion: Fundamentals, Testing, and Protection, vol. 13A, Materials Park, Ohio: ASM International, 2003.BRETT, A.M.O., BRETT, C.M. Electroquímica: Princípios, métodos e aplicações. Coimbra, Livraria Medina, 1996. FONTANA, M.G. Corrosion Engineering. 3ª Edição. McGraw-Hill, 1987  GENTIL, V. Corrosão. 5ª Edição, Rio de Janeiro,Ed. LTC, 2007 JAMBO, H.C.M. e Fofano S. Corrosão: Fundamentos, Monitoração e Controle. Editora Ciência Moderna,2009. JONES, D.A. Principles and Prevention of Corrosion. 2ª Edição, Prentice Hall, 1996. McCAULEY, R. A. Corrosion of Ceramic and Composite Materials. 2ª Edição, 2004. RAMANHATAN, L. Corrosão e seu Controle. São Paulo. Ed. Hemus,1990. SHREIR, L.L., JARMAN, R.A., BURSTEIN, G.T. Corrosion. 3ª Edição. Oxford, Butterworth Heinemann, volume 2,2000. WEST, J. M. Basic Corrosion and Oxidation. Second Edition. New York. Ellis Horwood Limited; John Wiley &amp; Sons.1986.ROBERGE,Pierre R. Corrosion Engineering Principles and PracticeMcGraw-Hill, 2008..</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -625,105 +637,105 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="60" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -731,12 +743,36 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
